--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/固定资产合计.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/固定资产合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>122.68614</v>
-      </c>
-      <c r="C2" t="n">
-        <v>775.91417</v>
-      </c>
-      <c r="D2" t="n">
-        <v>95.02745</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0833</v>
-      </c>
-      <c r="F2" t="n">
-        <v>107.0879</v>
-      </c>
-      <c r="G2" t="n">
-        <v>599.86116</v>
-      </c>
-      <c r="H2" t="n">
-        <v>309.33586</v>
-      </c>
-      <c r="I2" t="n">
-        <v>176.34135</v>
-      </c>
-      <c r="J2" t="n">
-        <v>119.83886</v>
-      </c>
-      <c r="K2" t="n">
-        <v>393.4095</v>
-      </c>
-      <c r="L2" t="n">
-        <v>10524.00293</v>
-      </c>
-      <c r="M2" t="n">
-        <v>54.98083</v>
-      </c>
-      <c r="N2" t="n">
-        <v>102.45053</v>
-      </c>
-      <c r="O2" t="n">
-        <v>332.5828</v>
-      </c>
-      <c r="P2" t="n">
-        <v>164.77931</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.77169</v>
-      </c>
-      <c r="R2" t="n">
-        <v>248.84717</v>
-      </c>
-      <c r="S2" t="n">
-        <v>118.5384</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>177.6949</v>
-      </c>
-      <c r="V2" t="n">
-        <v>6.30074</v>
-      </c>
-      <c r="W2" t="n">
-        <v>19.48078</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.50775</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1483.99537</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1103.5469</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>532.5148799999999</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>144.39636</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>99.22519</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.01516</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>525.81413</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>10.52828</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>464.81988</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>374.19197</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>665.16296</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>7.81731</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>283.94331</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>283.37223</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>392.13713</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>224.64031</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.36097</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>126.6536</v>
-      </c>
-      <c r="C3" t="n">
-        <v>801.94907</v>
-      </c>
-      <c r="D3" t="n">
-        <v>95.26824999999999</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>117.10872</v>
-      </c>
-      <c r="G3" t="n">
-        <v>655.94141</v>
-      </c>
-      <c r="H3" t="n">
-        <v>197.64306</v>
-      </c>
-      <c r="I3" t="n">
-        <v>192.21661</v>
-      </c>
-      <c r="J3" t="n">
-        <v>192.92655</v>
-      </c>
-      <c r="K3" t="n">
-        <v>436.10999</v>
-      </c>
-      <c r="L3" t="n">
-        <v>11914.20494</v>
-      </c>
-      <c r="M3" t="n">
-        <v>63.33769</v>
-      </c>
-      <c r="N3" t="n">
-        <v>107.32224</v>
-      </c>
-      <c r="O3" t="n">
-        <v>357.07527</v>
-      </c>
-      <c r="P3" t="n">
-        <v>134.1838</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.99773</v>
-      </c>
-      <c r="R3" t="n">
-        <v>249.16608</v>
-      </c>
-      <c r="S3" t="n">
-        <v>128.26108</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>196.87524</v>
-      </c>
-      <c r="V3" t="n">
-        <v>7.36459</v>
-      </c>
-      <c r="W3" t="n">
-        <v>20.38532</v>
-      </c>
-      <c r="X3" t="n">
-        <v>10.71985</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1862.23701</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1405.77169</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>590.35104</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>157.51503</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>240.98234</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>60.8221</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>568.40185</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>14.01294</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>538.12261</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>438.12344</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>666.74728</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>7.67477</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>308.98482</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>291.3725</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>401.26531</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>269.89162</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.42244</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>149.54783</v>
-      </c>
-      <c r="C4" t="n">
-        <v>882.39125</v>
-      </c>
-      <c r="D4" t="n">
-        <v>120.3992</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>131.23122</v>
-      </c>
-      <c r="G4" t="n">
-        <v>701.45089</v>
-      </c>
-      <c r="H4" t="n">
-        <v>219.56291</v>
-      </c>
-      <c r="I4" t="n">
-        <v>228.97549</v>
-      </c>
-      <c r="J4" t="n">
-        <v>162.10242</v>
-      </c>
-      <c r="K4" t="n">
-        <v>477.99231</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12917.71918</v>
-      </c>
-      <c r="M4" t="n">
-        <v>74.96101</v>
-      </c>
-      <c r="N4" t="n">
-        <v>124.25223</v>
-      </c>
-      <c r="O4" t="n">
-        <v>404.53929</v>
-      </c>
-      <c r="P4" t="n">
-        <v>191.85957</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.86703</v>
-      </c>
-      <c r="R4" t="n">
-        <v>273.71551</v>
-      </c>
-      <c r="S4" t="n">
-        <v>122.974</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>219.84039</v>
-      </c>
-      <c r="V4" t="n">
-        <v>6.12264</v>
-      </c>
-      <c r="W4" t="n">
-        <v>35.44266</v>
-      </c>
-      <c r="X4" t="n">
-        <v>11.99053</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1940.097</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1661.05076</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>608.19643</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>176.42917</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>255.32632</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>65.04486</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>618.6801400000001</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>47.05058</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>562.38226</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>430.80169</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>689.1015599999999</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>8.53412</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>338.86331</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>317.74587</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>392.2105</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>261.87601</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.87176</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
